--- a/2025-10-22/22_fixtures.xlsx
+++ b/2025-10-22/22_fixtures.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,15 +488,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Zenit St. Petersburg  - FC Orenburg: 18:30</t>
+          <t>Bayern Munich  - Club Brugge KV: 20:00</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2.42</v>
+        <v>2.6</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Zenit St. Petersburg</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -504,11 +504,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>75%</t>
+          <t>74%</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="I2" t="b">
         <v>0</v>
@@ -522,15 +522,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bayern Munich  - Club Brugge KV: 20:00</t>
+          <t>CF América ✓ - Puebla FC: 2:1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2.65</v>
+        <v>2.22</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>CF América</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -538,14 +538,19 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>75%</t>
+          <t>73%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>✓</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="I3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -556,30 +561,30 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CF América  - Puebla FC: 02:00</t>
+          <t>Real Madrid  - Juventus FC: 20:00</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2.25</v>
+        <v>3.04</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CF América</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>73%</t>
+          <t>72%</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="I4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -590,15 +595,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Odds BK - Lillestrøm SK : 17:00</t>
+          <t>Chelsea FC  - Ajax Amsterdam: 20:00</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2.25</v>
+        <v>2.03</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Lillestrøm SK</t>
+          <t>Chelsea FC</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -606,11 +611,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>73%</t>
+          <t>70%</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
@@ -624,30 +629,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Galatasaray  - FK Bodø/Glimt: 17:45</t>
+          <t>FC Santa Coloma ✓ - Penya Encarnada d'Andorra: 1:0</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3.22</v>
+        <v>2.4</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>FC Santa Coloma</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>72%</t>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>✓</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="I6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -658,15 +668,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Real Madrid  - Juventus FC: 20:00</t>
+          <t>Nagaworld FC - Phnom Penh Crown : 12:00</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2.99</v>
+        <v>2.21</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Phnom Penh Crown</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -674,11 +684,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>72%</t>
+          <t>60%</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
@@ -692,27 +702,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FC Sardarapat  - FC Andranik: 12:00</t>
+          <t>JS Kabylie  - MC El Bayadh: 23:00</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3.57</v>
+        <v>0.88</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>FC Sardarapat</t>
+          <t>JS Kabylie</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>58%</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I8" t="b">
         <v>0</v>
@@ -726,27 +736,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>FC Goa - Al-Nassr FC : 14:45</t>
+          <t>MC Algiers  - JS Saoura: 23:00</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2.05</v>
+        <v>1.07</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Al-Nassr FC</t>
+          <t>MC Algiers</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>55%</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="I9" t="b">
         <v>0</v>
@@ -760,30 +770,30 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Chelsea FC  - Ajax Amsterdam: 20:00</t>
+          <t>Deportivo La Guaira  - Zamora FC: 1:1</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2.07</v>
+        <v>1.4</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Chelsea FC</t>
+          <t>Deportivo La Guaira</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>69%</t>
+          <t>53%</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="I10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -794,255 +804,51 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Aris Limassol  - Omonia 29is Maiou: 17:00</t>
+          <t>MC Algiers  - Paradou AC: 20:00</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3.11</v>
+        <v>1.53</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Aris Limassol</t>
+          <t>MC Algiers</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>52%</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I11" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Wed Oct 22</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>FK Panevėžys  - FK Riteriai: 17:00</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>FK Panevėžys</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>59%</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>17</v>
-      </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Wed Oct 22</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>JS Kabylie  - MC El Bayadh: 23:00</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>JS Kabylie</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>58%</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>23</v>
-      </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Wed Oct 22</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Aalesunds FK  - Lyn 1896 FK: 17:00</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Aalesunds FK</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>57%</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>17</v>
-      </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Wed Oct 22</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>FCI Levadia  - Paide Linnameeskond: 17:00</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>FCI Levadia</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>55%</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>17</v>
-      </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Wed Oct 22</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>MC Algiers  - JS Saoura: 23:00</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>MC Algiers</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>55%</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>23</v>
-      </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Wed Oct 22</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Kalev Tallinn - Kalju FC : 16:00</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Kalju FC</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>55%</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>16</v>
-      </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="K18">
+      <c r="K12">
         <f>COUNTIF(I:I,TRUE)</f>
         <v/>
       </c>
-      <c r="L18">
-        <f>(K18/K20)*100</f>
+      <c r="L12">
+        <f>(K12/K14)*100</f>
         <v/>
       </c>
     </row>
-    <row r="19">
-      <c r="K19">
+    <row r="13">
+      <c r="K13">
         <f>COUNTIF(I:I,FALSE)</f>
         <v/>
       </c>
     </row>
-    <row r="20">
-      <c r="K20">
-        <f>K18+K19</f>
+    <row r="14">
+      <c r="K14">
+        <f>K12+K13</f>
         <v/>
       </c>
     </row>

--- a/2025-10-22/22_fixtures.xlsx
+++ b/2025-10-22/22_fixtures.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,15 +488,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bayern Munich  - Club Brugge KV: 20:00</t>
+          <t>Zenit St. Petersburg ✓ - FC Orenburg: 6:0</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Zenit St. Petersburg</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -504,11 +504,16 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>74%</t>
+          <t>76%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>✓</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I2" t="b">
         <v>0</v>
@@ -522,15 +527,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CF América ✓ - Puebla FC: 2:1</t>
+          <t>Bayern Munich ✓ - Club Brugge KV: 4:0</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2.22</v>
+        <v>2.61</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CF América</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -538,7 +543,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>73%</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -547,10 +552,10 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -561,15 +566,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Real Madrid  - Juventus FC: 20:00</t>
+          <t>Galatasaray ✓ - FK Bodø/Glimt: 3:1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3.04</v>
+        <v>3.41</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -577,14 +582,19 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>72%</t>
+          <t>74%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>✓</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="I4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -595,15 +605,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chelsea FC  - Ajax Amsterdam: 20:00</t>
+          <t>Odds BK - Lillestrøm SK ✓: 1:7</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2.03</v>
+        <v>2.51</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Chelsea FC</t>
+          <t>Lillestrøm SK</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -611,11 +621,16 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>74%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>✓</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
@@ -629,15 +644,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FC Santa Coloma ✓ - Penya Encarnada d'Andorra: 1:0</t>
+          <t>CF América ✓ - Puebla FC: 2:1</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2.4</v>
+        <v>2.22</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FC Santa Coloma</t>
+          <t>CF América</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -645,7 +660,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>60%</t>
+          <t>73%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -654,7 +669,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
@@ -668,15 +683,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Nagaworld FC - Phnom Penh Crown : 12:00</t>
+          <t>Real Madrid ✓ - Juventus FC: 1:0</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2.21</v>
+        <v>2.94</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Phnom Penh Crown</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -684,14 +699,19 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>60%</t>
+          <t>72%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>✓</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -702,30 +722,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>JS Kabylie  - MC El Bayadh: 23:00</t>
+          <t>FC Goa - Al-Nassr FC ✓: 1:2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.88</v>
+        <v>2.12</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>JS Kabylie</t>
+          <t>Al-Nassr FC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>58%</t>
+          <t>71%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>✓</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="I8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -736,30 +761,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MC Algiers  - JS Saoura: 23:00</t>
+          <t>FC Sardarapat ✓ - FC Andranik: 1:0</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.07</v>
+        <v>3.78</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>MC Algiers</t>
+          <t>FC Sardarapat</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>55%</t>
+          <t>71%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>✓</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="I9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -770,27 +800,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Deportivo La Guaira  - Zamora FC: 1:1</t>
+          <t>Aris Limassol ✓ - Omonia 29is Maiou: 2:1</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.4</v>
+        <v>3.05</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Deportivo La Guaira</t>
+          <t>Aris Limassol</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>53%</t>
+          <t>70%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>✓</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I10" t="b">
         <v>1</v>
@@ -804,51 +839,465 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MC Algiers  - Paradou AC: 20:00</t>
+          <t>Chelsea FC ✓ - Ajax Amsterdam: 5:1</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.53</v>
+        <v>2.18</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>MC Algiers</t>
+          <t>Chelsea FC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>52%</t>
+          <t>70%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>✓</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I11" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="K12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Wed Oct 22</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Kongsvinger IL ✓ - IL Hødd: 3:0</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Kongsvinger IL</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>66%</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Wed Oct 22</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>FCI Levadia X - Paide Linnameeskond: 1:2</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>FCI Levadia</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>64%</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Wed Oct 22</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Kalev Tallinn - Kalju FC ✓: 0:2</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Kalju FC</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>63%</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Wed Oct 22</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Aalesunds FK ✓ - Lyn 1896 FK: 2:1</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Aalesunds FK</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Wed Oct 22</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>FC Santa Coloma ✓ - Penya Encarnada d'Andorra: 1:0</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>FC Santa Coloma</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Wed Oct 22</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Nagaworld FC - Phnom Penh Crown : 12:00</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Phnom Penh Crown</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>12</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Wed Oct 22</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>JS Kabylie  - MC El Bayadh: 23:00</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>JS Kabylie</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>58%</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>23</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Wed Oct 22</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Stabæk Fotball ✓ - Åsane Fotball: 2:0</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Stabæk Fotball</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>56%</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Wed Oct 22</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>MC Algiers  - JS Saoura: 23:00</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>MC Algiers</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>55%</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>23</v>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Wed Oct 22</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Deportivo La Guaira  - Zamora FC: 1:1</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Deportivo La Guaira</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>53%</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Wed Oct 22</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>MC Algiers ✓ - Paradou AC: 2:1</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>MC Algiers</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>52%</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="K23">
         <f>COUNTIF(I:I,TRUE)</f>
         <v/>
       </c>
-      <c r="L12">
-        <f>(K12/K14)*100</f>
+      <c r="L23">
+        <f>(K23/K25)*100</f>
         <v/>
       </c>
     </row>
-    <row r="13">
-      <c r="K13">
+    <row r="24">
+      <c r="K24">
         <f>COUNTIF(I:I,FALSE)</f>
         <v/>
       </c>
     </row>
-    <row r="14">
-      <c r="K14">
-        <f>K12+K13</f>
+    <row r="25">
+      <c r="K25">
+        <f>K23+K24</f>
         <v/>
       </c>
     </row>
